--- a/Solution/1. LeanFit.xlsx
+++ b/Solution/1. LeanFit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internshala course\Projects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\Documents\GitHub\Fitness-Data-Analysis-Using-Excel\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45E952-BD79-4EF6-B9B6-6AA5FC4C691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1893F-4A86-47E7-9DB5-94CB8F3D251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="weightLogInfo_merged" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$38:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$18:$F$18</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">heartrate_seconds_merged!$A$1:$B$15</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Main!$H$38:$I$52</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Main!$H$18:$I$32</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">weightLogInfo_merged!$A$1:$B$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -167,89 +167,14 @@
     <t>Count of REASON</t>
   </si>
   <si>
-    <t>How I solved the Task</t>
-  </si>
-  <si>
     <t>POTENTIAL CUSTOMERS IDs WHO CAN BUY WEIGHT LOSS PLAN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">First, I imported the weight loss data using Power Query and cleaned it by removing some columns. Next, I utilized the formula </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=UNIQUE(weightLogInfo_merged[Id]))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to find unique IDs. Then, I used the formula </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],E3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) to find the maximum BMI according to ID. After creating the column, I added the formula </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=IFS(F3&lt;25,"Healthy",F3&lt;30,"Overweight",F3&gt;30,"Obesity"))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to find the BMI range given in the task.
-AFter all of this, I imported the heart rate data using Power Query. Since there were too many rows in the heart rate data, I used a 'group data' to find unique info with the highest heart rates. Then, I made a list of potential customers and used that info to create a pivot table. Then, I create a charts showing the chance of buying the weight loss plan and pie chart for comparing reasons i.e. Heart Rate, obesity, overweight.</t>
-    </r>
-  </si>
-  <si>
-    <t>shivang.starttech@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +202,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -413,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -442,21 +361,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,13 +389,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +801,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Jatin_excel_question1.xlsx]Main!PivotTable1</c:name>
+    <c:name>[1. LeanFit.xlsx]Main!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1189,7 +1102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$E$48</c:f>
+              <c:f>Main!$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1396,7 +1309,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$49:$D$52</c:f>
+              <c:f>Main!$D$29:$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1413,7 +1326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$49:$E$52</c:f>
+              <c:f>Main!$E$29:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1604,8 +1517,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31014685647645757"/>
-          <c:y val="5.4789013685783289E-2"/>
+          <c:x val="0.29078806068888147"/>
+          <c:y val="5.4788982539167877E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1658,7 +1571,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$L$37</c:f>
+              <c:f>Main!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,7 +1600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Main!$K$38:$K$42</c:f>
+              <c:f>Main!$K$18:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1711,7 +1624,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$L$38:$L$42</c:f>
+              <c:f>Main!$L$18:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1990,8 +1903,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26315481142134062"/>
-          <c:y val="5.5087644937877468E-2"/>
+          <c:x val="0.19837742110096404"/>
+          <c:y val="4.5597556533191357E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2044,7 +1957,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$L$37</c:f>
+              <c:f>Main!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2073,7 +1986,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Main!$K$43:$K$47</c:f>
+              <c:f>Main!$K$23:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2097,7 +2010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$L$43:$L$47</c:f>
+              <c:f>Main!$L$23:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4049,15 +3962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>93889</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>62392</xdr:rowOff>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5384346</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>175853</xdr:rowOff>
+      <xdr:colOff>5336721</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4403</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4084,15 +3997,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>126546</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4120,16 +4033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4162,7 +4075,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jatin Kharbanda" refreshedDate="45280.574050115742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{5B0F5B7C-BBFC-4E59-9227-86456D8496F1}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="K37:M47" sheet="Main"/>
+    <worksheetSource ref="K17:M27" sheet="Main"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ID" numFmtId="0">
@@ -4244,7 +4157,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F766B9D-FF6F-4152-97A4-A9E4979580AA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="D48:E52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D28:E32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4451,8 +4364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52AC46CD-32EB-4CC3-B119-E1DBA4A4D280}" name="heartrate_seconds_merged8" displayName="heartrate_seconds_merged8" ref="H38:I52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="H38:I52" xr:uid="{52AC46CD-32EB-4CC3-B119-E1DBA4A4D280}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52AC46CD-32EB-4CC3-B119-E1DBA4A4D280}" name="heartrate_seconds_merged8" displayName="heartrate_seconds_merged8" ref="H18:I32" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="H18:I32" xr:uid="{52AC46CD-32EB-4CC3-B119-E1DBA4A4D280}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1186C1E6-5D22-4F49-9702-69DFC90120CC}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{01417E06-C015-4006-8295-D2CEB615E306}" uniqueName="2" name="HEART RATE" queryTableFieldId="2" dataDxfId="6"/>
@@ -4758,15 +4671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="13"/>
-    <col min="3" max="3" width="86.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
@@ -4782,163 +4695,157 @@
     <col min="17" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="12">
         <v>1927972279</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="12">
         <v>4319703577</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="12">
         <v>4558609924</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>5577150313</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <v>8877689391</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
         <v>2022484408</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="12">
         <v>2347167796</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="12">
         <v>4020332650</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="12">
         <v>6117666160</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="N12" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" s="15"/>
@@ -4950,391 +4857,393 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="37" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="17" t="s">
+    <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="20" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="H17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="K37" s="5" t="s">
+      <c r="I17" s="21"/>
+      <c r="K17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
+    <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="8" cm="1">
-        <f t="array" ref="K38:M42">_xlfn._xlws.FILTER(D39:F46,(F39:F46="Obesity")+(F39:F46="Overweight"))</f>
+      <c r="K18" s="8" cm="1">
+        <f t="array" ref="K18:M22">_xlfn._xlws.FILTER(D19:F26,(F19:F26="Obesity")+(F19:F26="Overweight"))</f>
         <v>1927972279</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L18" s="9">
         <v>47.540000915527301</v>
       </c>
-      <c r="M38" s="8" t="str">
+      <c r="M18" s="8" t="str">
         <v>Obesity</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="8" cm="1">
-        <f t="array" ref="D39:D46">_xlfn.UNIQUE(weightLogInfo_merged[Id])</f>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" cm="1">
+        <f t="array" ref="D19:D26">_xlfn.UNIQUE(weightLogInfo_merged[Id])</f>
         <v>1503960366</v>
       </c>
-      <c r="E39" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D39)</f>
+      <c r="E19" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D19)</f>
         <v>22.649999618530298</v>
       </c>
-      <c r="F39" s="8" t="str" cm="1">
-        <f t="array" ref="F39">_xlfn.IFS(E39&lt;25,"Healthy",E39&lt;30,"Overweight",E39&gt;30,"Obesity")</f>
+      <c r="F19" s="8" t="str" cm="1">
+        <f t="array" ref="F19">_xlfn.IFS(E19&lt;25,"Healthy",E19&lt;30,"Overweight",E19&gt;30,"Obesity")</f>
         <v>Healthy</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H19" s="10">
         <v>2022484408</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I19" s="10">
         <v>203</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K19" s="8">
         <v>4319703577</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L19" s="9">
         <v>27.450000762939499</v>
       </c>
-      <c r="M39" s="8" t="str">
+      <c r="M19" s="8" t="str">
         <v>Overweight</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="8">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
         <v>1927972279</v>
       </c>
-      <c r="E40" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D40)</f>
+      <c r="E20" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D20)</f>
         <v>47.540000915527301</v>
       </c>
-      <c r="F40" s="8" t="str" cm="1">
-        <f t="array" ref="F40">_xlfn.IFS(E40&lt;25,"Healthy",E40&lt;30,"Overweight",E40&gt;30,"Obesity")</f>
+      <c r="F20" s="8" t="str" cm="1">
+        <f t="array" ref="F20">_xlfn.IFS(E20&lt;25,"Healthy",E20&lt;30,"Overweight",E20&gt;30,"Obesity")</f>
         <v>Obesity</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H20" s="10">
         <v>2026352035</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I20" s="10">
         <v>125</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K20" s="8">
         <v>4558609924</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L20" s="9">
         <v>27.459999084472699</v>
       </c>
-      <c r="M40" s="8" t="str">
+      <c r="M20" s="8" t="str">
         <v>Overweight</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="8">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
         <v>2873212765</v>
       </c>
-      <c r="E41" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D41)</f>
+      <c r="E21" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D21)</f>
         <v>21.690000534057599</v>
       </c>
-      <c r="F41" s="8" t="str" cm="1">
-        <f t="array" ref="F41">_xlfn.IFS(E41&lt;25,"Healthy",E41&lt;30,"Overweight",E41&gt;30,"Obesity")</f>
+      <c r="F21" s="8" t="str" cm="1">
+        <f t="array" ref="F21">_xlfn.IFS(E21&lt;25,"Healthy",E21&lt;30,"Overweight",E21&gt;30,"Obesity")</f>
         <v>Healthy</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H21" s="10">
         <v>2347167796</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I21" s="10">
         <v>195</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K21" s="8">
         <v>5577150313</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L21" s="9">
         <v>28</v>
       </c>
-      <c r="M41" s="8" t="str">
+      <c r="M21" s="8" t="str">
         <v>Overweight</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="8">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
         <v>4319703577</v>
       </c>
-      <c r="E42" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D42)</f>
+      <c r="E22" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D22)</f>
         <v>27.450000762939499</v>
       </c>
-      <c r="F42" s="8" t="str" cm="1">
-        <f t="array" ref="F42">_xlfn.IFS(E42&lt;25,"Healthy",E42&lt;30,"Overweight",E42&gt;30,"Obesity")</f>
+      <c r="F22" s="8" t="str" cm="1">
+        <f t="array" ref="F22">_xlfn.IFS(E22&lt;25,"Healthy",E22&lt;30,"Overweight",E22&gt;30,"Obesity")</f>
         <v>Overweight</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H22" s="10">
         <v>4020332650</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I22" s="10">
         <v>191</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K22" s="8">
         <v>8877689391</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L22" s="9">
         <v>25.680000305175799</v>
       </c>
-      <c r="M42" s="8" t="str">
+      <c r="M22" s="8" t="str">
         <v>Overweight</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D43" s="8">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
         <v>4558609924</v>
       </c>
-      <c r="E43" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D43)</f>
+      <c r="E23" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D23)</f>
         <v>27.459999084472699</v>
       </c>
-      <c r="F43" s="8" t="str" cm="1">
-        <f t="array" ref="F43">_xlfn.IFS(E43&lt;25,"Healthy",E43&lt;30,"Overweight",E43&gt;30,"Obesity")</f>
+      <c r="F23" s="8" t="str" cm="1">
+        <f t="array" ref="F23">_xlfn.IFS(E23&lt;25,"Healthy",E23&lt;30,"Overweight",E23&gt;30,"Obesity")</f>
         <v>Overweight</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H23" s="10">
         <v>4388161847</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I23" s="10">
         <v>180</v>
       </c>
-      <c r="K43" s="8" cm="1">
-        <f t="array" ref="K43:L47">_xlfn._xlws.FILTER(heartrate_seconds_merged8[],heartrate_seconds_merged8[HEART RATE]&gt;185)</f>
+      <c r="K23" s="8" cm="1">
+        <f t="array" ref="K23:L27">_xlfn._xlws.FILTER(heartrate_seconds_merged8[],heartrate_seconds_merged8[HEART RATE]&gt;185)</f>
         <v>2022484408</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L23" s="8">
         <v>203</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D44" s="8">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
         <v>5577150313</v>
       </c>
-      <c r="E44" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D44)</f>
+      <c r="E24" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D24)</f>
         <v>28</v>
       </c>
-      <c r="F44" s="8" t="str" cm="1">
-        <f t="array" ref="F44">_xlfn.IFS(E44&lt;25,"Healthy",E44&lt;30,"Overweight",E44&gt;30,"Obesity")</f>
+      <c r="F24" s="8" t="str" cm="1">
+        <f t="array" ref="F24">_xlfn.IFS(E24&lt;25,"Healthy",E24&lt;30,"Overweight",E24&gt;30,"Obesity")</f>
         <v>Overweight</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H24" s="10">
         <v>4558609924</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I24" s="10">
         <v>199</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K24" s="8">
         <v>2347167796</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L24" s="8">
         <v>195</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="8">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
         <v>6962181067</v>
       </c>
-      <c r="E45" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D45)</f>
+      <c r="E25" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D25)</f>
         <v>24.389999389648398</v>
       </c>
-      <c r="F45" s="8" t="str" cm="1">
-        <f t="array" ref="F45">_xlfn.IFS(E45&lt;25,"Healthy",E45&lt;30,"Overweight",E45&gt;30,"Obesity")</f>
+      <c r="F25" s="8" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.IFS(E25&lt;25,"Healthy",E25&lt;30,"Overweight",E25&gt;30,"Obesity")</f>
         <v>Healthy</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H25" s="10">
         <v>5553957443</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I25" s="10">
         <v>165</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K25" s="8">
         <v>4020332650</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L25" s="8">
         <v>191</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="8">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
         <v>8877689391</v>
       </c>
-      <c r="E46" s="9">
-        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D46)</f>
+      <c r="E26" s="9">
+        <f>_xlfn.MAXIFS(weightLogInfo_merged[BMI],weightLogInfo_merged[Id],D26)</f>
         <v>25.680000305175799</v>
       </c>
-      <c r="F46" s="8" t="str" cm="1">
-        <f t="array" ref="F46">_xlfn.IFS(E46&lt;25,"Healthy",E46&lt;30,"Overweight",E46&gt;30,"Obesity")</f>
+      <c r="F26" s="8" t="str" cm="1">
+        <f t="array" ref="F26">_xlfn.IFS(E26&lt;25,"Healthy",E26&lt;30,"Overweight",E26&gt;30,"Obesity")</f>
         <v>Overweight</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H26" s="10">
         <v>5577150313</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I26" s="10">
         <v>174</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K26" s="8">
         <v>4558609924</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L26" s="8">
         <v>199</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="10">
+        <v>6117666160</v>
+      </c>
+      <c r="I27" s="10">
+        <v>189</v>
+      </c>
+      <c r="K27" s="8">
+        <v>6117666160</v>
+      </c>
+      <c r="L27" s="8">
+        <v>189</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="H28" s="10">
+        <v>6775888955</v>
+      </c>
+      <c r="I28" s="10">
+        <v>177</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="H29" s="10">
+        <v>6962181067</v>
+      </c>
+      <c r="I29" s="10">
+        <v>184</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="H30" s="10">
+        <v>7007744171</v>
+      </c>
+      <c r="I30" s="10">
+        <v>166</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="H31" s="10">
+        <v>8792009665</v>
+      </c>
+      <c r="I31" s="10">
+        <v>158</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="8">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="H32" s="10">
+        <v>8877689391</v>
+      </c>
+      <c r="I32" s="10">
+        <v>180</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="H47" s="10">
-        <v>6117666160</v>
-      </c>
-      <c r="I47" s="10">
-        <v>189</v>
-      </c>
-      <c r="K47" s="8">
-        <v>6117666160</v>
-      </c>
-      <c r="L47" s="8">
-        <v>189</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="H48" s="10">
-        <v>6775888955</v>
-      </c>
-      <c r="I48" s="10">
-        <v>177</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="8">
-        <v>5</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="H49" s="10">
-        <v>6962181067</v>
-      </c>
-      <c r="I49" s="10">
-        <v>184</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="H50" s="10">
-        <v>7007744171</v>
-      </c>
-      <c r="I50" s="10">
-        <v>166</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="8">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="H51" s="10">
-        <v>8792009665</v>
-      </c>
-      <c r="I51" s="10">
-        <v>158</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="8">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="H52" s="10">
-        <v>8877689391</v>
-      </c>
-      <c r="I52" s="10">
-        <v>180</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -5344,7 +5253,7 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -5354,7 +5263,7 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -5365,13 +5274,11 @@
       <c r="J55" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:L13"/>
+  <mergeCells count="2">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
-  <conditionalFormatting sqref="L38:L42">
+  <conditionalFormatting sqref="L18:L22">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -5385,7 +5292,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:L47">
+  <conditionalFormatting sqref="L23:L27">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5419,7 +5326,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L38:L42</xm:sqref>
+          <xm:sqref>L18:L22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7872ED83-AB45-4D03-9D5D-EDA5B6BFD8C9}">
@@ -5432,7 +5339,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L43:L47</xm:sqref>
+          <xm:sqref>L23:L27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5445,7 +5352,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
